--- a/Keras_weibo/check_weibo.xlsx
+++ b/Keras_weibo/check_weibo.xlsx
@@ -1,14 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$51</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -582,17 +585,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="108" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,31 +603,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="23" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -632,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -640,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -648,23 +651,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -672,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -680,15 +683,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -696,15 +699,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="70" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -712,23 +715,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -736,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -744,15 +747,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="114" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" ht="112" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -760,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
@@ -768,15 +771,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -784,15 +787,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -800,15 +803,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -816,23 +819,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -840,15 +843,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -856,15 +859,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -872,15 +875,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -888,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -896,7 +899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -904,15 +907,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -920,23 +923,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -944,15 +947,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -960,15 +963,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="28" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -976,15 +979,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -992,16 +995,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" ht="42" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="1">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>